--- a/DataProcessing/mother-of-test.xlsx
+++ b/DataProcessing/mother-of-test.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanh\Desktop\Project1\DataProcessing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nam\Desktop\s\Project1\DataProcessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>A</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>J</t>
+  </si>
+  <si>
+    <t>bejad</t>
   </si>
 </sst>
 </file>
@@ -77,7 +80,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -115,19 +118,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -171,11 +161,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,53 +446,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L1:L18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>42620</v>
+        <v>42651</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -519,14 +509,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>42621</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>42652</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3">
         <v>1</v>
@@ -542,14 +532,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>42622</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3"/>
+        <v>42653</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
         <v>1</v>
@@ -565,14 +555,14 @@
       </c>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>42623</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3"/>
+        <v>42654</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
@@ -590,17 +580,17 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>42624</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
+        <v>42655</v>
+      </c>
+      <c r="B6" s="3"/>
       <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
         <v>1</v>
@@ -619,11 +609,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>42625</v>
-      </c>
-      <c r="B7" s="3"/>
+        <v>42656</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3">
         <v>1</v>
@@ -638,11 +630,13 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>42626</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>42657</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3">
@@ -657,12 +651,14 @@
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>42627</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+        <v>42658</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
       <c r="D9" s="3">
         <v>1</v>
       </c>
@@ -680,11 +676,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>42628</v>
-      </c>
-      <c r="B10" s="3"/>
+        <v>42659</v>
+      </c>
+      <c r="B10" s="8"/>
       <c r="C10" s="3">
         <v>1</v>
       </c>
@@ -701,14 +697,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>42629</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3"/>
+        <v>42660</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -722,15 +718,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>42630</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+        <v>42661</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -743,15 +741,17 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>42631</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+        <v>42662</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
       <c r="E13" s="3">
         <v>1</v>
       </c>
@@ -768,12 +768,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>42632</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+        <v>42663</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3">
         <v>1</v>
@@ -791,12 +793,14 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>42633</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+        <v>42664</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3">
         <v>1</v>
@@ -812,11 +816,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>42634</v>
-      </c>
-      <c r="B16" s="3"/>
+        <v>42665</v>
+      </c>
+      <c r="B16" s="8"/>
       <c r="C16" s="3">
         <v>1</v>
       </c>
@@ -833,24 +837,70 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
-        <v>42635</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>42666</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f>SUM(B2:B17)</f>
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:K18" si="0">SUM(C2:C17)</f>
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataProcessing/mother-of-test.xlsx
+++ b/DataProcessing/mother-of-test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>A</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>J</t>
-  </si>
-  <si>
-    <t>bejad</t>
   </si>
 </sst>
 </file>
@@ -446,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,235 +489,215 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>42651</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+        <v>42653</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="3">
-        <v>1</v>
-      </c>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>42652</v>
+        <v>42654</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="3">
-        <v>1</v>
-      </c>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>42653</v>
+        <v>42655</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>42654</v>
+        <v>42656</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>42655</v>
+        <v>42657</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1</v>
-      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>42656</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
+        <v>42658</v>
+      </c>
+      <c r="B7" s="8"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>42657</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3">
-        <v>1</v>
-      </c>
+        <v>42659</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>42658</v>
+        <v>42660</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="3">
+      <c r="C9" s="8">
         <v>1</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="3">
-        <v>1</v>
-      </c>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>42659</v>
+        <v>42661</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="3">
         <v>1</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="3">
-        <v>1</v>
-      </c>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>42660</v>
+        <v>42662</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="3">
         <v>1</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3">
-        <v>1</v>
-      </c>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>42661</v>
+        <v>42663</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3">
@@ -730,20 +707,20 @@
         <v>1</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1</v>
-      </c>
+      <c r="F12" s="8">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8">
+        <v>1</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>42662</v>
+        <v>42664</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3">
@@ -752,73 +729,61 @@
       <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3">
-        <v>1</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1</v>
-      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8">
+        <v>1</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>42663</v>
+        <v>42665</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="3">
         <v>1</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>42664</v>
+        <v>42666</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="3">
         <v>1</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3">
-        <v>1</v>
-      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8">
+        <v>1</v>
+      </c>
+      <c r="I15" s="8"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="3">
-        <v>1</v>
-      </c>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>42665</v>
+        <v>42667</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="3">
@@ -828,24 +793,24 @@
         <v>1</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>42666</v>
+        <v>42668</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4">
         <v>1</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -854,51 +819,46 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18">
         <f>SUM(B2:B17)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <f t="shared" ref="C18:K18" si="0">SUM(C2:C17)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L21" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
